--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Igf1r</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.244444355645785</v>
+        <v>0.2596556666666667</v>
       </c>
       <c r="H2">
-        <v>0.244444355645785</v>
+        <v>0.778967</v>
       </c>
       <c r="I2">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711503</v>
       </c>
       <c r="J2">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711502</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N2">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O2">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P2">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q2">
-        <v>1.776095064801594</v>
+        <v>2.179649719983556</v>
       </c>
       <c r="R2">
-        <v>1.776095064801594</v>
+        <v>19.616847479852</v>
       </c>
       <c r="S2">
-        <v>0.0005508471677624534</v>
+        <v>0.0003838309124815107</v>
       </c>
       <c r="T2">
-        <v>0.0005508471677624534</v>
+        <v>0.0003838309124815106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.244444355645785</v>
+        <v>0.2596556666666667</v>
       </c>
       <c r="H3">
-        <v>0.244444355645785</v>
+        <v>0.778967</v>
       </c>
       <c r="I3">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711503</v>
       </c>
       <c r="J3">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711502</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N3">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O3">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P3">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q3">
-        <v>2.565374157214942</v>
+        <v>2.785789562042666</v>
       </c>
       <c r="R3">
-        <v>2.565374157214942</v>
+        <v>25.072106058384</v>
       </c>
       <c r="S3">
-        <v>0.0007956382047098929</v>
+        <v>0.000490570636087514</v>
       </c>
       <c r="T3">
-        <v>0.0007956382047098929</v>
+        <v>0.000490570636087514</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.244444355645785</v>
+        <v>0.2596556666666667</v>
       </c>
       <c r="H4">
-        <v>0.244444355645785</v>
+        <v>0.778967</v>
       </c>
       <c r="I4">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711503</v>
       </c>
       <c r="J4">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711502</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N4">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O4">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P4">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q4">
-        <v>0.5771021921311842</v>
+        <v>0.6419203929257777</v>
       </c>
       <c r="R4">
-        <v>0.5771021921311842</v>
+        <v>5.777283536331999</v>
       </c>
       <c r="S4">
-        <v>0.0001789854126307579</v>
+        <v>0.0001130405899160026</v>
       </c>
       <c r="T4">
-        <v>0.0001789854126307579</v>
+        <v>0.0001130405899160026</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.244444355645785</v>
+        <v>0.2596556666666667</v>
       </c>
       <c r="H5">
-        <v>0.244444355645785</v>
+        <v>0.778967</v>
       </c>
       <c r="I5">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711503</v>
       </c>
       <c r="J5">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711502</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N5">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O5">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P5">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q5">
-        <v>0.6903674121848934</v>
+        <v>0.763828468770111</v>
       </c>
       <c r="R5">
-        <v>0.6903674121848934</v>
+        <v>6.874456218930999</v>
       </c>
       <c r="S5">
-        <v>0.0002141140647558886</v>
+        <v>0.0001345082998701272</v>
       </c>
       <c r="T5">
-        <v>0.0002141140647558886</v>
+        <v>0.0001345082998701272</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.244444355645785</v>
+        <v>0.2596556666666667</v>
       </c>
       <c r="H6">
-        <v>0.244444355645785</v>
+        <v>0.778967</v>
       </c>
       <c r="I6">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711503</v>
       </c>
       <c r="J6">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711502</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N6">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O6">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P6">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q6">
-        <v>11.14703809435414</v>
+        <v>12.58509116563922</v>
       </c>
       <c r="R6">
-        <v>11.14703809435414</v>
+        <v>113.265820490753</v>
       </c>
       <c r="S6">
-        <v>0.003457199158368859</v>
+        <v>0.00221620335665987</v>
       </c>
       <c r="T6">
-        <v>0.003457199158368859</v>
+        <v>0.00221620335665987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.244444355645785</v>
+        <v>0.2596556666666667</v>
       </c>
       <c r="H7">
-        <v>0.244444355645785</v>
+        <v>0.778967</v>
       </c>
       <c r="I7">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711503</v>
       </c>
       <c r="J7">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711502</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.3570447113631</v>
+        <v>14.732752</v>
       </c>
       <c r="N7">
-        <v>11.3570447113631</v>
+        <v>44.198256</v>
       </c>
       <c r="O7">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="P7">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="Q7">
-        <v>2.776165476509524</v>
+        <v>3.825442542394667</v>
       </c>
       <c r="R7">
-        <v>2.776165476509524</v>
+        <v>34.428982881552</v>
       </c>
       <c r="S7">
-        <v>0.0008610140978833263</v>
+        <v>0.0006736509486964781</v>
       </c>
       <c r="T7">
-        <v>0.0008610140978833263</v>
+        <v>0.0006736509486964781</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.8770476986978</v>
+        <v>13.98385333333333</v>
       </c>
       <c r="H8">
-        <v>13.8770476986978</v>
+        <v>41.95156</v>
       </c>
       <c r="I8">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="J8">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N8">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O8">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P8">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q8">
-        <v>100.8284927118074</v>
+        <v>117.3858533248178</v>
       </c>
       <c r="R8">
-        <v>100.8284927118074</v>
+        <v>1056.47267992336</v>
       </c>
       <c r="S8">
-        <v>0.03127146217607486</v>
+        <v>0.02067135777872856</v>
       </c>
       <c r="T8">
-        <v>0.03127146217607486</v>
+        <v>0.02067135777872856</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.8770476986978</v>
+        <v>13.98385333333333</v>
       </c>
       <c r="H9">
-        <v>13.8770476986978</v>
+        <v>41.95156</v>
       </c>
       <c r="I9">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="J9">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N9">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O9">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P9">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q9">
-        <v>145.6356783147194</v>
+        <v>150.0297419010133</v>
       </c>
       <c r="R9">
-        <v>145.6356783147194</v>
+        <v>1350.26767710912</v>
       </c>
       <c r="S9">
-        <v>0.04516819088948291</v>
+        <v>0.02641986563495438</v>
       </c>
       <c r="T9">
-        <v>0.04516819088948291</v>
+        <v>0.02641986563495438</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.8770476986978</v>
+        <v>13.98385333333333</v>
       </c>
       <c r="H10">
-        <v>13.8770476986978</v>
+        <v>41.95156</v>
       </c>
       <c r="I10">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="J10">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N10">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O10">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P10">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q10">
-        <v>32.76195364000255</v>
+        <v>34.57086356552889</v>
       </c>
       <c r="R10">
-        <v>32.76195364000255</v>
+        <v>311.1377720897599</v>
       </c>
       <c r="S10">
-        <v>0.01016095913479507</v>
+        <v>0.006087843375003794</v>
       </c>
       <c r="T10">
-        <v>0.01016095913479507</v>
+        <v>0.006087843375003794</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.8770476986978</v>
+        <v>13.98385333333333</v>
       </c>
       <c r="H11">
-        <v>13.8770476986978</v>
+        <v>41.95156</v>
       </c>
       <c r="I11">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="J11">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N11">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O11">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P11">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q11">
-        <v>39.19199313564319</v>
+        <v>41.13626872167556</v>
       </c>
       <c r="R11">
-        <v>39.19199313564319</v>
+        <v>370.2264184950799</v>
       </c>
       <c r="S11">
-        <v>0.01215520432750385</v>
+        <v>0.007243994947795776</v>
       </c>
       <c r="T11">
-        <v>0.01215520432750385</v>
+        <v>0.007243994947795776</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.8770476986978</v>
+        <v>13.98385333333333</v>
       </c>
       <c r="H12">
-        <v>13.8770476986978</v>
+        <v>41.95156</v>
       </c>
       <c r="I12">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="J12">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N12">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O12">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P12">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q12">
-        <v>632.8146907949322</v>
+        <v>677.7748057886712</v>
       </c>
       <c r="R12">
-        <v>632.8146907949322</v>
+        <v>6099.97325209804</v>
       </c>
       <c r="S12">
-        <v>0.1962643706697091</v>
+        <v>0.1193544631404385</v>
       </c>
       <c r="T12">
-        <v>0.1962643706697091</v>
+        <v>0.1193544631404385</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.8770476986978</v>
+        <v>13.98385333333333</v>
       </c>
       <c r="H13">
-        <v>13.8770476986978</v>
+        <v>41.95156</v>
       </c>
       <c r="I13">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="J13">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.3570447113631</v>
+        <v>14.732752</v>
       </c>
       <c r="N13">
-        <v>11.3570447113631</v>
+        <v>44.198256</v>
       </c>
       <c r="O13">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="P13">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="Q13">
-        <v>157.6022511758293</v>
+        <v>206.0206431643734</v>
       </c>
       <c r="R13">
-        <v>157.6022511758293</v>
+        <v>1854.18578847936</v>
       </c>
       <c r="S13">
-        <v>0.04887956473371</v>
+        <v>0.03627972454968853</v>
       </c>
       <c r="T13">
-        <v>0.04887956473371</v>
+        <v>0.03627972454968853</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.07339598772288</v>
+        <v>0.02225466666666667</v>
       </c>
       <c r="H14">
-        <v>4.07339598772288</v>
+        <v>0.066764</v>
       </c>
       <c r="I14">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="J14">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N14">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O14">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P14">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q14">
-        <v>29.59666829558874</v>
+        <v>0.1868142474648889</v>
       </c>
       <c r="R14">
-        <v>29.59666829558874</v>
+        <v>1.681328227184</v>
       </c>
       <c r="S14">
-        <v>0.009179261419574449</v>
+        <v>3.289752587839483E-05</v>
       </c>
       <c r="T14">
-        <v>0.009179261419574449</v>
+        <v>3.289752587839483E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.07339598772288</v>
+        <v>0.02225466666666667</v>
       </c>
       <c r="H15">
-        <v>4.07339598772288</v>
+        <v>0.066764</v>
       </c>
       <c r="I15">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="J15">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N15">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O15">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P15">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q15">
-        <v>42.74913516166311</v>
+        <v>0.2387655116586667</v>
       </c>
       <c r="R15">
-        <v>42.74913516166311</v>
+        <v>2.148889604928</v>
       </c>
       <c r="S15">
-        <v>0.01325843446939986</v>
+        <v>4.204601471916883E-05</v>
       </c>
       <c r="T15">
-        <v>0.01325843446939986</v>
+        <v>4.204601471916884E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>4.07339598772288</v>
+        <v>0.02225466666666667</v>
       </c>
       <c r="H16">
-        <v>4.07339598772288</v>
+        <v>0.066764</v>
       </c>
       <c r="I16">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="J16">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N16">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O16">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P16">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q16">
-        <v>9.6167724868217</v>
+        <v>0.05501795726044444</v>
       </c>
       <c r="R16">
-        <v>9.6167724868217</v>
+        <v>0.495161615344</v>
       </c>
       <c r="S16">
-        <v>0.002982594790315114</v>
+        <v>9.68852588768459E-06</v>
       </c>
       <c r="T16">
-        <v>0.002982594790315114</v>
+        <v>9.688525887684592E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>4.07339598772288</v>
+        <v>0.02225466666666667</v>
       </c>
       <c r="H17">
-        <v>4.07339598772288</v>
+        <v>0.066764</v>
       </c>
       <c r="I17">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="J17">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N17">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O17">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P17">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q17">
-        <v>11.50421264348414</v>
+        <v>0.06546650100577778</v>
       </c>
       <c r="R17">
-        <v>11.50421264348414</v>
+        <v>0.589198509052</v>
       </c>
       <c r="S17">
-        <v>0.00356797509186714</v>
+        <v>1.152848853998844E-05</v>
       </c>
       <c r="T17">
-        <v>0.00356797509186714</v>
+        <v>1.152848853998844E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>4.07339598772288</v>
+        <v>0.02225466666666667</v>
       </c>
       <c r="H18">
-        <v>4.07339598772288</v>
+        <v>0.066764</v>
       </c>
       <c r="I18">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="J18">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N18">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O18">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P18">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q18">
-        <v>185.7531139493063</v>
+        <v>1.078647781719556</v>
       </c>
       <c r="R18">
-        <v>185.7531139493063</v>
+        <v>9.707830035476</v>
       </c>
       <c r="S18">
-        <v>0.05761041666621709</v>
+        <v>0.0001899472004642553</v>
       </c>
       <c r="T18">
-        <v>0.05761041666621709</v>
+        <v>0.0001899472004642553</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>4.07339598772288</v>
+        <v>0.02225466666666667</v>
       </c>
       <c r="H19">
-        <v>4.07339598772288</v>
+        <v>0.066764</v>
       </c>
       <c r="I19">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="J19">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.3570447113631</v>
+        <v>14.732752</v>
       </c>
       <c r="N19">
-        <v>11.3570447113631</v>
+        <v>44.198256</v>
       </c>
       <c r="O19">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="P19">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="Q19">
-        <v>46.2617403596558</v>
+        <v>0.3278724848426667</v>
       </c>
       <c r="R19">
-        <v>46.2617403596558</v>
+        <v>2.950852363584</v>
       </c>
       <c r="S19">
-        <v>0.01434785173265772</v>
+        <v>5.773753180657418E-05</v>
       </c>
       <c r="T19">
-        <v>0.01434785173265772</v>
+        <v>5.773753180657418E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1656,49 +1656,49 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>22.1571262317646</v>
+        <v>0.06449100000000001</v>
       </c>
       <c r="H20">
-        <v>22.1571262317646</v>
+        <v>0.193473</v>
       </c>
       <c r="I20">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317929</v>
       </c>
       <c r="J20">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317927</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N20">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O20">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P20">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q20">
-        <v>160.99026891604</v>
+        <v>0.5413623045320001</v>
       </c>
       <c r="R20">
-        <v>160.99026891604</v>
+        <v>4.872260740788001</v>
       </c>
       <c r="S20">
-        <v>0.04993034180837773</v>
+        <v>9.533255982671324E-05</v>
       </c>
       <c r="T20">
-        <v>0.04993034180837773</v>
+        <v>9.533255982671323E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1718,49 +1718,49 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>22.1571262317646</v>
+        <v>0.06449100000000001</v>
       </c>
       <c r="H21">
-        <v>22.1571262317646</v>
+        <v>0.193473</v>
       </c>
       <c r="I21">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317929</v>
       </c>
       <c r="J21">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317927</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N21">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O21">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P21">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q21">
-        <v>232.5327532433793</v>
+        <v>0.691910008944</v>
       </c>
       <c r="R21">
-        <v>232.5327532433793</v>
+        <v>6.227190080496</v>
       </c>
       <c r="S21">
-        <v>0.07211889221167886</v>
+        <v>0.0001218436373758575</v>
       </c>
       <c r="T21">
-        <v>0.07211889221167886</v>
+        <v>0.0001218436373758575</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>22.1571262317646</v>
+        <v>0.06449100000000001</v>
       </c>
       <c r="H22">
-        <v>22.1571262317646</v>
+        <v>0.193473</v>
       </c>
       <c r="I22">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317929</v>
       </c>
       <c r="J22">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317927</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N22">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O22">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P22">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q22">
-        <v>52.31017131034828</v>
+        <v>0.159434564212</v>
       </c>
       <c r="R22">
-        <v>52.31017131034828</v>
+        <v>1.434911077908</v>
       </c>
       <c r="S22">
-        <v>0.01622374290798054</v>
+        <v>2.807603152998623E-05</v>
       </c>
       <c r="T22">
-        <v>0.01622374290798054</v>
+        <v>2.807603152998623E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>22.1571262317646</v>
+        <v>0.06449100000000001</v>
       </c>
       <c r="H23">
-        <v>22.1571262317646</v>
+        <v>0.193473</v>
       </c>
       <c r="I23">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317929</v>
       </c>
       <c r="J23">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317927</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N23">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O23">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P23">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q23">
-        <v>62.57685049698183</v>
+        <v>0.189713024221</v>
       </c>
       <c r="R23">
-        <v>62.57685049698183</v>
+        <v>1.707417217989</v>
       </c>
       <c r="S23">
-        <v>0.01940790307167908</v>
+        <v>3.340799327927001E-05</v>
       </c>
       <c r="T23">
-        <v>0.01940790307167908</v>
+        <v>3.340799327927001E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>22.1571262317646</v>
+        <v>0.06449100000000001</v>
       </c>
       <c r="H24">
-        <v>22.1571262317646</v>
+        <v>0.193473</v>
       </c>
       <c r="I24">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317929</v>
       </c>
       <c r="J24">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317927</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N24">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O24">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P24">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q24">
-        <v>1010.398990454875</v>
+        <v>3.125774703023001</v>
       </c>
       <c r="R24">
-        <v>1010.398990454875</v>
+        <v>28.131972327207</v>
       </c>
       <c r="S24">
-        <v>0.3133702881294163</v>
+        <v>0.0005504411766134575</v>
       </c>
       <c r="T24">
-        <v>0.3133702881294163</v>
+        <v>0.0005504411766134574</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.193473</v>
+      </c>
+      <c r="I25">
+        <v>0.0009964169203317929</v>
+      </c>
+      <c r="J25">
+        <v>0.0009964169203317927</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.732752</v>
+      </c>
+      <c r="N25">
+        <v>44.198256</v>
+      </c>
+      <c r="O25">
+        <v>0.167917182348524</v>
+      </c>
+      <c r="P25">
+        <v>0.167917182348524</v>
+      </c>
+      <c r="Q25">
+        <v>0.950129909232</v>
+      </c>
+      <c r="R25">
+        <v>8.551169183088</v>
+      </c>
+      <c r="S25">
+        <v>0.0001673155217065084</v>
+      </c>
+      <c r="T25">
+        <v>0.0001673155217065084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.216979</v>
+      </c>
+      <c r="H26">
+        <v>12.650937</v>
+      </c>
+      <c r="I26">
+        <v>0.06515435065798086</v>
+      </c>
+      <c r="J26">
+        <v>0.06515435065798085</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.394385333333334</v>
+      </c>
+      <c r="N26">
+        <v>25.183156</v>
+      </c>
+      <c r="O26">
+        <v>0.0956753723079781</v>
+      </c>
+      <c r="P26">
+        <v>0.09567537230797811</v>
+      </c>
+      <c r="Q26">
+        <v>35.39894666857467</v>
+      </c>
+      <c r="R26">
+        <v>318.590520017172</v>
+      </c>
+      <c r="S26">
+        <v>0.006233666756686877</v>
+      </c>
+      <c r="T26">
+        <v>0.006233666756686876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.216979</v>
+      </c>
+      <c r="H27">
+        <v>12.650937</v>
+      </c>
+      <c r="I27">
+        <v>0.06515435065798086</v>
+      </c>
+      <c r="J27">
+        <v>0.06515435065798085</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>10.728784</v>
+      </c>
+      <c r="N27">
+        <v>32.186352</v>
+      </c>
+      <c r="O27">
+        <v>0.1222817827454047</v>
+      </c>
+      <c r="P27">
+        <v>0.1222817827454047</v>
+      </c>
+      <c r="Q27">
+        <v>45.243056823536</v>
+      </c>
+      <c r="R27">
+        <v>407.187511411824</v>
+      </c>
+      <c r="S27">
+        <v>0.007967190152077131</v>
+      </c>
+      <c r="T27">
+        <v>0.007967190152077133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.216979</v>
+      </c>
+      <c r="H28">
+        <v>12.650937</v>
+      </c>
+      <c r="I28">
+        <v>0.06515435065798086</v>
+      </c>
+      <c r="J28">
+        <v>0.06515435065798085</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.472198666666666</v>
+      </c>
+      <c r="N28">
+        <v>7.416595999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.0281769919369066</v>
+      </c>
+      <c r="P28">
+        <v>0.0281769919369066</v>
+      </c>
+      <c r="Q28">
+        <v>10.42520986116133</v>
+      </c>
+      <c r="R28">
+        <v>93.826888750452</v>
+      </c>
+      <c r="S28">
+        <v>0.001835853613144312</v>
+      </c>
+      <c r="T28">
+        <v>0.001835853613144312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.216979</v>
+      </c>
+      <c r="H29">
+        <v>12.650937</v>
+      </c>
+      <c r="I29">
+        <v>0.06515435065798086</v>
+      </c>
+      <c r="J29">
+        <v>0.06515435065798085</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2.941697666666666</v>
+      </c>
+      <c r="N29">
+        <v>8.825092999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.03352812723026181</v>
+      </c>
+      <c r="P29">
+        <v>0.03352812723026182</v>
+      </c>
+      <c r="Q29">
+        <v>12.40507728468233</v>
+      </c>
+      <c r="R29">
+        <v>111.645695562141</v>
+      </c>
+      <c r="S29">
+        <v>0.002184503358465875</v>
+      </c>
+      <c r="T29">
+        <v>0.002184503358465875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.216979</v>
+      </c>
+      <c r="H30">
+        <v>12.650937</v>
+      </c>
+      <c r="I30">
+        <v>0.06515435065798086</v>
+      </c>
+      <c r="J30">
+        <v>0.06515435065798085</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>48.46838633333333</v>
+      </c>
+      <c r="N30">
+        <v>145.405159</v>
+      </c>
+      <c r="O30">
+        <v>0.5524205434309247</v>
+      </c>
+      <c r="P30">
+        <v>0.5524205434309247</v>
+      </c>
+      <c r="Q30">
+        <v>204.3901673315537</v>
+      </c>
+      <c r="R30">
+        <v>1839.511505983983</v>
+      </c>
+      <c r="S30">
+        <v>0.03599260179737081</v>
+      </c>
+      <c r="T30">
+        <v>0.03599260179737081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.216979</v>
+      </c>
+      <c r="H31">
+        <v>12.650937</v>
+      </c>
+      <c r="I31">
+        <v>0.06515435065798086</v>
+      </c>
+      <c r="J31">
+        <v>0.06515435065798085</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>14.732752</v>
+      </c>
+      <c r="N31">
+        <v>44.198256</v>
+      </c>
+      <c r="O31">
+        <v>0.167917182348524</v>
+      </c>
+      <c r="P31">
+        <v>0.167917182348524</v>
+      </c>
+      <c r="Q31">
+        <v>62.12770579620801</v>
+      </c>
+      <c r="R31">
+        <v>559.1493521658721</v>
+      </c>
+      <c r="S31">
+        <v>0.01094053498023585</v>
+      </c>
+      <c r="T31">
+        <v>0.01094053498023585</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>46.17567366666666</v>
+      </c>
+      <c r="H32">
+        <v>138.527021</v>
+      </c>
+      <c r="I32">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="J32">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>8.394385333333334</v>
+      </c>
+      <c r="N32">
+        <v>25.183156</v>
+      </c>
+      <c r="O32">
+        <v>0.0956753723079781</v>
+      </c>
+      <c r="P32">
+        <v>0.09567537230797811</v>
+      </c>
+      <c r="Q32">
+        <v>387.6163977842529</v>
+      </c>
+      <c r="R32">
+        <v>3488.547580058276</v>
+      </c>
+      <c r="S32">
+        <v>0.06825828677437605</v>
+      </c>
+      <c r="T32">
+        <v>0.06825828677437606</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>46.17567366666666</v>
+      </c>
+      <c r="H33">
+        <v>138.527021</v>
+      </c>
+      <c r="I33">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="J33">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>10.728784</v>
+      </c>
+      <c r="N33">
+        <v>32.186352</v>
+      </c>
+      <c r="O33">
+        <v>0.1222817827454047</v>
+      </c>
+      <c r="P33">
+        <v>0.1222817827454047</v>
+      </c>
+      <c r="Q33">
+        <v>495.4088288241546</v>
+      </c>
+      <c r="R33">
+        <v>4458.679459417392</v>
+      </c>
+      <c r="S33">
+        <v>0.08724026667019065</v>
+      </c>
+      <c r="T33">
+        <v>0.08724026667019068</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>46.17567366666666</v>
+      </c>
+      <c r="H34">
+        <v>138.527021</v>
+      </c>
+      <c r="I34">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="J34">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.472198666666666</v>
+      </c>
+      <c r="N34">
+        <v>7.416595999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.0281769919369066</v>
+      </c>
+      <c r="P34">
+        <v>0.0281769919369066</v>
+      </c>
+      <c r="Q34">
+        <v>114.1554388711684</v>
+      </c>
+      <c r="R34">
+        <v>1027.398949840516</v>
+      </c>
+      <c r="S34">
+        <v>0.02010248980142482</v>
+      </c>
+      <c r="T34">
+        <v>0.02010248980142482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>22.1571262317646</v>
-      </c>
-      <c r="H25">
-        <v>22.1571262317646</v>
-      </c>
-      <c r="I25">
-        <v>0.5490959157925819</v>
-      </c>
-      <c r="J25">
-        <v>0.5490959157925819</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>11.3570447113631</v>
-      </c>
-      <c r="N25">
-        <v>11.3570447113631</v>
-      </c>
-      <c r="O25">
-        <v>0.1421331782277005</v>
-      </c>
-      <c r="P25">
-        <v>0.1421331782277005</v>
-      </c>
-      <c r="Q25">
-        <v>251.6394732894668</v>
-      </c>
-      <c r="R25">
-        <v>251.6394732894668</v>
-      </c>
-      <c r="S25">
-        <v>0.07804474766344945</v>
-      </c>
-      <c r="T25">
-        <v>0.07804474766344945</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>46.17567366666666</v>
+      </c>
+      <c r="H35">
+        <v>138.527021</v>
+      </c>
+      <c r="I35">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="J35">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2.941697666666666</v>
+      </c>
+      <c r="N35">
+        <v>8.825092999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.03352812723026181</v>
+      </c>
+      <c r="P35">
+        <v>0.03352812723026182</v>
+      </c>
+      <c r="Q35">
+        <v>135.8348714819948</v>
+      </c>
+      <c r="R35">
+        <v>1222.513843337953</v>
+      </c>
+      <c r="S35">
+        <v>0.02392018414231078</v>
+      </c>
+      <c r="T35">
+        <v>0.02392018414231079</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>46.17567366666666</v>
+      </c>
+      <c r="H36">
+        <v>138.527021</v>
+      </c>
+      <c r="I36">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="J36">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>48.46838633333333</v>
+      </c>
+      <c r="N36">
+        <v>145.405159</v>
+      </c>
+      <c r="O36">
+        <v>0.5524205434309247</v>
+      </c>
+      <c r="P36">
+        <v>0.5524205434309247</v>
+      </c>
+      <c r="Q36">
+        <v>2238.060390477926</v>
+      </c>
+      <c r="R36">
+        <v>20142.54351430134</v>
+      </c>
+      <c r="S36">
+        <v>0.3941168867593778</v>
+      </c>
+      <c r="T36">
+        <v>0.3941168867593778</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>46.17567366666666</v>
+      </c>
+      <c r="H37">
+        <v>138.527021</v>
+      </c>
+      <c r="I37">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="J37">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>14.732752</v>
+      </c>
+      <c r="N37">
+        <v>44.198256</v>
+      </c>
+      <c r="O37">
+        <v>0.167917182348524</v>
+      </c>
+      <c r="P37">
+        <v>0.167917182348524</v>
+      </c>
+      <c r="Q37">
+        <v>680.2947485639306</v>
+      </c>
+      <c r="R37">
+        <v>6122.652737075376</v>
+      </c>
+      <c r="S37">
+        <v>0.1197982188163901</v>
+      </c>
+      <c r="T37">
+        <v>0.1197982188163901</v>
       </c>
     </row>
   </sheetData>
